--- a/biology/Zoologie/Cardisoma_crassum/Cardisoma_crassum.xlsx
+++ b/biology/Zoologie/Cardisoma_crassum/Cardisoma_crassum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tombourou voyageur
-Cardisoma crassum, le Tombourou voyageur[1], est une espèce de crabes terrestres de la famille des Gecarcinidae.
+Cardisoma crassum, le Tombourou voyageur, est une espèce de crabes terrestres de la famille des Gecarcinidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve ce crabe dans la zone côtière tropicale du Pacifique oriental, de la Basse Californie jusqu'au Pérou[2] . 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve ce crabe dans la zone côtière tropicale du Pacifique oriental, de la Basse Californie jusqu'au Pérou . 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a une carapace bleu violacé, des pattes rouges et une pince principale blanche. Dans sa description de 1870, l'auteur indique que les spécimens en sa possession présentaient une carapace mesurant de 51 à 56 mm de longueur et 62 à 68 mm de largeur[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a une carapace bleu violacé, des pattes rouges et une pince principale blanche. Dans sa description de 1870, l'auteur indique que les spécimens en sa possession présentaient une carapace mesurant de 51 à 56 mm de longueur et 62 à 68 mm de largeur.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cardisoma crassum vit en général parmi les racines des arbres des mangroves, où il construit son terrier. Il se retrouve aussi occasionnellement sur la partie la plus sèche des rives.
 </t>
@@ -605,10 +623,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Cardisoma crassum Smith, 1870[4],[3]. Ce taxon a été initialement décrit sous la graphie Cardiosoma crassum[3].
-Cardisoma crassum a pour synonymes[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Cardisoma crassum Smith, 1870,. Ce taxon a été initialement décrit sous la graphie Cardiosoma crassum.
+Cardisoma crassum a pour synonymes :
 Cardiosoma crassum Smith, 1870
 Cardiosoma latimanus Lockington, 1877</t>
         </is>
@@ -639,6 +659,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
